--- a/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>254,2%</t>
+          <t>-4,98%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,6</t>
+          <t>-4,22; 3,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,68</t>
+          <t>-4,36; 3,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,89</t>
+          <t>-3,61; 3,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,48</t>
+          <t>-4,49; 5,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 215,45</t>
+          <t>-50,57; 92,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 138,15</t>
+          <t>-48,74; 69,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 149,17</t>
+          <t>-44,03; 100,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>254,2%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,92</t>
+          <t>-1,13; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,64</t>
+          <t>-2,79; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,76</t>
+          <t>-2,37; 4,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,46</t>
+          <t>-0,93; 15,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 92,36</t>
+          <t>-22,05; 215,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 69,58</t>
+          <t>-60,76; 138,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,03; 100,87</t>
+          <t>-35,92; 149,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>36,65%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,47</t>
+          <t>-8,55; 8,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 5,83</t>
+          <t>-9,27; 8,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 7,71</t>
+          <t>-7,67; 10,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 15,25</t>
+          <t>-11,38; 22,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 28,0</t>
+          <t>-36,49; 58,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 33,78</t>
+          <t>-30,56; 40,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 59,47</t>
+          <t>-30,97; 56,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,29; 362,01</t>
+          <t>-66,19; 487,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-12,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>-26,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-40,63%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,92</t>
+          <t>-4,7; 2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 3,64</t>
+          <t>-5,92; 2,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,76</t>
+          <t>-6,51; 1,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,46</t>
+          <t>-8,75; 7,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 92,36</t>
+          <t>-47,98; 45,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 69,58</t>
+          <t>-52,33; 42,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,03; 100,87</t>
+          <t>-62,26; 33,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>254,2%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,6</t>
+          <t>-3,93; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,68</t>
+          <t>-1,76; 6,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,89</t>
+          <t>-3,82; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,48</t>
+          <t>1,31; 17,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 215,45</t>
+          <t>-61,04; 215,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 138,15</t>
+          <t>-47,68; 412,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 149,17</t>
+          <t>-60,28; 123,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-34,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>91,97%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,63</t>
+          <t>-2,06; 6,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,54</t>
+          <t>-4,89; 1,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,37</t>
+          <t>-0,87; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,5</t>
+          <t>-4,44; 16,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 40,07</t>
+          <t>-39,93; 237,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 28,98</t>
+          <t>-78,97; 83,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 45,02</t>
+          <t>-31,51; 376,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 416,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 2,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 2,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 3,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 8,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; 40,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,78; 26,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 44,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-35,07; 367,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 8,94</t>
+          <t>-8,23; 8,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 8,32</t>
+          <t>-9,19; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 10,23</t>
+          <t>-6,26; 10,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 22,22</t>
+          <t>-10,26; 23,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 58,35</t>
+          <t>-34,94; 56,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 40,28</t>
+          <t>-30,65; 43,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 56,43</t>
+          <t>-24,61; 64,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,19; 487,06</t>
+          <t>-66,91; 453,71</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,71</t>
+          <t>-5,39; 2,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,91</t>
+          <t>-5,73; 2,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,95</t>
+          <t>-6,72; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 7,46</t>
+          <t>-9,04; 6,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 45,01</t>
+          <t>-51,45; 46,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 42,4</t>
+          <t>-51,61; 38,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 33,15</t>
+          <t>-61,72; 35,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,2</t>
+          <t>-4,17; 4,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,09</t>
+          <t>-1,77; 6,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,15</t>
+          <t>-3,84; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,92</t>
+          <t>1,33; 18,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,04; 215,98</t>
+          <t>-64,35; 190,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 412,08</t>
+          <t>-45,87; 390,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 123,56</t>
+          <t>-61,02; 141,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,0</t>
+          <t>-2,56; 5,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 1,7</t>
+          <t>-4,98; 1,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 8,79</t>
+          <t>-1,14; 8,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 16,43</t>
+          <t>-4,94; 16,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 237,59</t>
+          <t>-45,73; 237,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,97; 83,61</t>
+          <t>-78,97; 82,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 376,48</t>
+          <t>-24,09; 376,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,87</t>
+          <t>-2,59; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,29</t>
+          <t>-2,92; 2,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,22</t>
+          <t>-1,95; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 8,65</t>
+          <t>-1,41; 8,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 40,34</t>
+          <t>-27,25; 37,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 26,2</t>
+          <t>-24,98; 26,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 44,54</t>
+          <t>-19,99; 45,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 367,24</t>
+          <t>-29,4; 358,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>35,21%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 8,97</t>
+          <t>-8,18; 9,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 8,83</t>
+          <t>-9,36; 8,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 10,59</t>
+          <t>-7,37; 9,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 23,21</t>
+          <t>-11,24; 22,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 56,42</t>
+          <t>-33,51; 64,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 43,53</t>
+          <t>-29,71; 38,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 64,17</t>
+          <t>-27,76; 57,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 453,71</t>
+          <t>-66,78; 433,27</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-40,63%</t>
+          <t>-40,78%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,67</t>
+          <t>-5,15; 2,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,64</t>
+          <t>-5,49; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,03</t>
+          <t>-6,35; 2,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 6,31</t>
+          <t>-8,3; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 46,66</t>
+          <t>-51,74; 49,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 38,95</t>
+          <t>-50,06; 44,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 35,65</t>
+          <t>-59,34; 38,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,97</t>
+          <t>-4,38; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,33</t>
+          <t>-2,15; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,37</t>
+          <t>-3,5; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 18,58</t>
+          <t>1,22; 18,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 190,75</t>
+          <t>-63,28; 238,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 390,31</t>
+          <t>-51,67; 449,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,02; 141,17</t>
+          <t>-59,55; 149,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>96,49%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,49</t>
+          <t>-2,19; 5,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,97</t>
+          <t>-5,12; 2,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,86</t>
+          <t>-0,93; 8,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 16,54</t>
+          <t>-4,02; 18,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 237,25</t>
+          <t>-40,68; 224,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,97; 82,46</t>
+          <t>-78,47; 101,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 376,8</t>
+          <t>-24,01; 401,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,87%</t>
+          <t>75,78%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,62</t>
+          <t>-2,41; 2,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,28</t>
+          <t>-2,91; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,32</t>
+          <t>-1,71; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 8,89</t>
+          <t>-1,5; 9,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 37,69</t>
+          <t>-26,3; 40,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 26,09</t>
+          <t>-25,77; 28,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 45,87</t>
+          <t>-17,06; 45,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 358,07</t>
+          <t>-34,52; 420,35</t>
         </is>
       </c>
     </row>
